--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_390__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_390__Reeval_LHS_Modell_1.2.xlsx
@@ -5894,7 +5894,7 @@
                   <c:v>70.25508117675781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.594482421875</c:v>
+                  <c:v>70.59449005126953</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>79.21403503417969</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>46.52372360229492</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71.34331512451172</c:v>
+                  <c:v>71.34330749511719</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>46.52372360229492</c:v>
@@ -6020,7 +6020,7 @@
                   <c:v>57.00075531005859</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>82.41181182861328</c:v>
+                  <c:v>82.41181945800781</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>46.52372360229492</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>46.52372360229492</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48.92414093017578</c:v>
+                  <c:v>48.92413711547852</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>46.52372360229492</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>88.25441741943359</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>69.66462707519531</c:v>
+                  <c:v>69.66461944580078</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>46.52372360229492</c:v>
@@ -6074,10 +6074,10 @@
                   <c:v>46.52372360229492</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>75.52698516845703</c:v>
+                  <c:v>75.5269775390625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>70.69232177734375</c:v>
+                  <c:v>70.69232940673828</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>46.52372360229492</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>46.52372360229492</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>76.66682434082031</c:v>
+                  <c:v>76.66681671142578</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>46.52372360229492</c:v>
@@ -6161,10 +6161,10 @@
                   <c:v>46.52372360229492</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>82.17523193359375</c:v>
+                  <c:v>82.17522430419922</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52.19005966186523</c:v>
+                  <c:v>52.1900520324707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>70.594482421875</v>
+        <v>70.59449005126953</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>71.34331512451172</v>
+        <v>71.34330749511719</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>98.24630000000001</v>
       </c>
       <c r="F51">
-        <v>82.41181182861328</v>
+        <v>82.41181945800781</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>48.92414093017578</v>
+        <v>48.92413711547852</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>69.66462707519531</v>
+        <v>69.66461944580078</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>75.52698516845703</v>
+        <v>75.5269775390625</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>70.69232177734375</v>
+        <v>70.69232940673828</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>76.66682434082031</v>
+        <v>76.66681671142578</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>82.17523193359375</v>
+        <v>82.17522430419922</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>52.19005966186523</v>
+        <v>52.1900520324707</v>
       </c>
     </row>
     <row r="100" spans="1:6">
